--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3962334.66117597</v>
+        <v>3955317.64628426</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>142.6621898072149</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>300.8915849827645</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>213.6743229269902</v>
       </c>
       <c r="W4" t="n">
-        <v>83.59830597394803</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>230.7427785993223</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>405.3633998272713</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>13.41006015825283</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>229.5889480231531</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>78.10065894224137</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.283679164003455</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.58595117973783</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.54110646053094</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896917</v>
+        <v>411.9645167896919</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.11561436815803</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417127</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>97.12772045570696</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>22.42123215846201</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>34.22759348994921</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404427</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>128.2693160379189</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.97948033333861</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.2131102961575</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>165.9464157477639</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>202.5457551949523</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>72.14107628195107</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>45.90234712787159</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>45.72523033531994</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>210.968521252134</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>54.6863244596417</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>511.3398517472591</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4375,7 +4375,7 @@
         <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>138.3857151273827</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1408.083041312479</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>1039.120524372067</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D5" t="n">
-        <v>1039.120524372067</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>477.32436550528</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646715</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.682881376601</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.682881376601</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1794.682881376601</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>249.4739324659484</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>249.4739324659484</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284.970060705656</v>
+        <v>1187.828354776383</v>
       </c>
       <c r="C8" t="n">
-        <v>916.007543765244</v>
+        <v>818.8658378359717</v>
       </c>
       <c r="D8" t="n">
-        <v>557.7418451584936</v>
+        <v>460.6001392292212</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.811886630977</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1675.109392681467</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1284.970060705656</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2080756496231</v>
+        <v>698.712065060056</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>698.712065060056</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>548.5954256477203</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>400.6823320653272</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>253.7923845674168</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>84.79258430574922</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>84.79258430574922</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>84.79258430574922</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.712065060056</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.712065060056</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.712065060056</v>
       </c>
       <c r="W10" t="n">
-        <v>409.2948950230956</v>
+        <v>698.712065060056</v>
       </c>
       <c r="X10" t="n">
-        <v>409.2948950230956</v>
+        <v>698.712065060056</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.2948950230956</v>
+        <v>698.712065060056</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5029,34 +5029,34 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5068,19 +5068,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>745.6707680030233</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>874.927113122792</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>585.5099430858313</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>357.520392187814</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.7278130442839</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5275,7 +5275,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5302,22 +5302,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5363,13 +5363,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1089.812348494162</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>800.6837097077201</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>545.9992215018333</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.8029164824583</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5524,43 +5524,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4242.791036724022</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4763.091658459769</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5715,10 +5715,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1476.268561306931</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1221.584073101044</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>932.166903064083</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>932.166903064083</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2432.614441745107</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1264.422933715931</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1264.422933715931</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.738445510044</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.738445510044</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>781.7488946120263</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823761</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4076.539318291368</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>3907.603135363461</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>3757.486495951126</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>3609.573402368732</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>3609.573402368732</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>4606.170084808406</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W28" t="n">
-        <v>4316.752914771445</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X28" t="n">
-        <v>4316.752914771445</v>
+        <v>615.749957978863</v>
       </c>
       <c r="Y28" t="n">
-        <v>4258.187783121608</v>
+        <v>394.9573788353329</v>
       </c>
     </row>
     <row r="29">
@@ -6448,28 +6448,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.8683222506741</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C31" t="n">
-        <v>358.8683222506741</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1165.403681972094</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>876.2750431856521</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>876.2750431856521</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>586.8578731486914</v>
+        <v>787.4805013961153</v>
       </c>
       <c r="X31" t="n">
-        <v>358.8683222506741</v>
+        <v>787.4805013961153</v>
       </c>
       <c r="Y31" t="n">
-        <v>358.8683222506741</v>
+        <v>566.6879222525852</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>983.329485121187</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>983.329485121187</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>983.329485121187</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>693.9123150842264</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>465.9227641862091</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>2896.654173359327</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3203.974306639288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>4008.385884903439</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4287.925950122136</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4279.002365959436</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>4110.066183031529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>4110.066183031529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3962.153089449136</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4460.650830789676</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>4460.650830789676</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>4460.650830789676</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4460.650830789676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>4460.650830789676</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7265,13 +7265,13 @@
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>588.5027791527954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1098.712528333286</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>809.2953582963255</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>809.2953582963255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>588.5027791527954</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3033.644633014775</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3340.964766294737</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>3670.82739395877</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4034.814521865531</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4251.296547201589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>4082.360364273682</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4660.934562929845</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>4660.934562929845</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>4660.934562929845</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>4432.945012031828</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>4432.945012031828</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333286</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V46" t="n">
-        <v>1098.712528333286</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W46" t="n">
-        <v>1043.47381675789</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X46" t="n">
-        <v>815.4842658598729</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>594.6916867163428</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951791</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>87.16935584025373</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>169.2863157167176</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>32.92248665775594</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.8749102765736</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720712</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9956,28 +9956,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>73.64859338270696</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>41.75994765618401</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>308.1251096272033</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,16 +10676,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>283.6093329825492</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10913,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>85.30006332127675</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>52.497333613053</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.7163658137792</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>30.7520134099866</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>124.4198406026823</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
-        <v>75.26883114644332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>263.8161202401153</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>187.31996756844</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>82.39383318338528</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>51.56266414401836</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>160.6051730187562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>1.334450762231711</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>120.5765825888271</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>19.00180586343694</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>73.27997174098017</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>121.3444739707562</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>102.8902426828924</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>75.26883114644335</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>231.8366738769493</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>647033.309476629</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>647033.309476629</v>
+        <v>647033.3094766292</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.681371069</v>
-      </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="G2" t="n">
         <v>742955.2135016473</v>
@@ -26334,28 +26334,28 @@
         <v>742955.2135016471</v>
       </c>
       <c r="I2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="J2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742955.2135016469</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="M2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="K2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>742955.2135016469</v>
       </c>
-      <c r="M2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>742955.2135016473</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.213501647</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,19 +26429,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687065</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26450,13 +26450,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26490,13 +26490,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58470.14369340937</v>
+        <v>-58470.14369340925</v>
       </c>
       <c r="C6" t="n">
+        <v>531497.735521135</v>
+      </c>
+      <c r="D6" t="n">
         <v>531497.7355211353</v>
       </c>
-      <c r="D6" t="n">
-        <v>531497.735521135</v>
-      </c>
       <c r="E6" t="n">
-        <v>103633.2434891636</v>
+        <v>102658.6522294416</v>
       </c>
       <c r="F6" t="n">
-        <v>628793.2799660596</v>
+        <v>627818.6887063383</v>
       </c>
       <c r="G6" t="n">
-        <v>628793.2799660601</v>
+        <v>627818.6887063384</v>
       </c>
       <c r="H6" t="n">
-        <v>628793.2799660598</v>
+        <v>627818.6887063382</v>
       </c>
       <c r="I6" t="n">
-        <v>628793.2799660597</v>
+        <v>627818.6887063384</v>
       </c>
       <c r="J6" t="n">
-        <v>452370.0607734672</v>
+        <v>451395.4695137455</v>
       </c>
       <c r="K6" t="n">
-        <v>628793.27996606</v>
+        <v>627818.6887063379</v>
       </c>
       <c r="L6" t="n">
-        <v>628793.2799660596</v>
+        <v>627818.6887063384</v>
       </c>
       <c r="M6" t="n">
-        <v>493992.2647322228</v>
+        <v>493017.6734725009</v>
       </c>
       <c r="N6" t="n">
-        <v>628793.2799660601</v>
+        <v>627818.6887063382</v>
       </c>
       <c r="O6" t="n">
-        <v>628793.2799660598</v>
+        <v>627818.6887063379</v>
       </c>
       <c r="P6" t="n">
-        <v>628793.2799660597</v>
+        <v>627818.6887063384</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26758,13 +26758,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>239.2681802650469</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.03118778159268</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27584,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>38.46332039683776</v>
       </c>
       <c r="W4" t="n">
-        <v>202.924692362643</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>151.1875914729395</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>1.5126459144401</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27669,7 +27669,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>142.7608286835423</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>56.93405031343795</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>303.8297111300204</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>48.19472341080829</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.2460290021995</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>14.65885272800609</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32721,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32742,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32870,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32882,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>336.4270607962781</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35506,7 +35506,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
@@ -35889,7 +35889,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221117</v>
@@ -35904,7 +35904,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.8253897034981</v>
@@ -35977,16 +35977,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>451.6500179578258</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>343.3468637082223</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36369,19 +36369,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>192.8879430616478</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415054</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>406.8431667807198</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>374.9545210541968</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>618.5494866776696</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37387,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37396,16 +37396,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>490.7027479140739</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.8253897034981</v>
@@ -37633,16 +37633,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>513.2182750716</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37873,16 +37873,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>367.6637655623849</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>259.5907485445777</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3955317.64628426</v>
+        <v>3960256.909133293</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>246.3888645227377</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>300.8915849827645</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>213.6743229269902</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>405.3633998272713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>224.5747655622551</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>54.89632529172481</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>13.41006015825283</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>311.4936872159385</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.283679164003455</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.54110646053094</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>59.72683757586812</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896919</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274081</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>180.0334712995424</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417127</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>149.0799667719507</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670924</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>206.8064269214864</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>101.0041688483418</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.2693160379189</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>165.9464157477639</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056514</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>231.778776932225</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>89.90384136151349</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>33.35146980185925</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>79.0655316282663</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>210.968521252134</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1998.219284210995</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>525.2632558086682</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>511.3398517472591</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>512.2963347852319</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>1648.990120852571</v>
       </c>
       <c r="C5" t="n">
-        <v>863.1126181035243</v>
+        <v>1648.990120852571</v>
       </c>
       <c r="D5" t="n">
-        <v>863.1126181035243</v>
+        <v>1648.990120852571</v>
       </c>
       <c r="E5" t="n">
-        <v>477.32436550528</v>
+        <v>1263.201868254327</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>852.2159634647194</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>434.2521553629063</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>2035.589960916693</v>
       </c>
     </row>
     <row r="6">
@@ -4646,7 +4646,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>266.2060027641994</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="C7" t="n">
-        <v>546.4805193761945</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="D7" t="n">
-        <v>396.3638799638587</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>396.3638799638587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>249.4739324659484</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>249.4739324659484</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776383</v>
+        <v>2310.549250954099</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359717</v>
+        <v>1941.586734013687</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292212</v>
+        <v>1583.321035406937</v>
       </c>
       <c r="E8" t="n">
-        <v>74.811886630977</v>
+        <v>1197.532782808693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>786.5468780190852</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>368.583069917272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>2697.149091018221</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027642003</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>670.821920859872</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417903</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.712065060056</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>698.712065060056</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477203</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653272</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7923845674168</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>84.79258430574922</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>84.79258430574922</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>84.79258430574922</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="X10" t="n">
-        <v>698.712065060056</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.712065060056</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5023,40 +5023,40 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5065,7 +5065,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>985.713685310448</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>757.7241344124307</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W16" t="n">
-        <v>696.5850465240057</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X16" t="n">
-        <v>468.5954956259884</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.8029164824583</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,22 +5512,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5539,22 +5539,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126483</v>
@@ -6074,16 +6074,16 @@
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>420.034083581939</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>420.034083581939</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>199.2415044384089</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823761</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514058</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,19 +6314,19 @@
         <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>843.7395088768803</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>615.749957978863</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>394.9573788353329</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,25 +6545,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>787.4805013961153</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X31" t="n">
-        <v>787.4805013961153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822468</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6858,7 +6858,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
@@ -6867,7 +6867,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,28 +6876,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028587</v>
@@ -6925,16 +6925,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6946,10 +6946,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6961,7 +6961,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7104,7 +7104,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>864.5925516340694</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="38">
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1408.104309586677</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1118.975670800235</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>864.2911825943485</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>864.2911825943485</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>636.3016316963311</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,13 +7396,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>130.9054447954972</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1419.052097196018</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1219.13208711157</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1219.13208711157</v>
       </c>
       <c r="U46" t="n">
-        <v>862.1113288466635</v>
+        <v>1219.13208711157</v>
       </c>
       <c r="V46" t="n">
-        <v>607.4268406407766</v>
+        <v>964.447598905683</v>
       </c>
       <c r="W46" t="n">
-        <v>318.0096706038159</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270201</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719094</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951791</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720712</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10439,13 +10439,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>38.55118205255243</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.7520134099866</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>140.3375291694986</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>14.74113413690284</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>78.82781133359552</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338528</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.56266414401836</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>120.5765825888271</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338571</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>54.74422140436599</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>131.6437196968758</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>133.1420986615183</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>30.89882077552647</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>75.26883114644335</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.3094766292</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>647033.3094766292</v>
+        <v>647033.3094766291</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.3094766292</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.3094766292</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="F2" t="n">
         <v>742955.2135016471</v>
-      </c>
-      <c r="F2" t="n">
-        <v>742955.2135016472</v>
       </c>
       <c r="G2" t="n">
         <v>742955.2135016473</v>
@@ -26334,28 +26334,28 @@
         <v>742955.2135016471</v>
       </c>
       <c r="I2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="J2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="K2" t="n">
         <v>742955.2135016473</v>
-      </c>
-      <c r="J2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="K2" t="n">
-        <v>742955.2135016469</v>
       </c>
       <c r="L2" t="n">
         <v>742955.2135016473</v>
       </c>
       <c r="M2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="N2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="O2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016472</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.022529435979809e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865245</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687063</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687065</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58470.14369340925</v>
+        <v>-58470.1436934096</v>
       </c>
       <c r="C6" t="n">
         <v>531497.735521135</v>
       </c>
       <c r="D6" t="n">
-        <v>531497.7355211353</v>
+        <v>531497.7355211355</v>
       </c>
       <c r="E6" t="n">
-        <v>102658.6522294416</v>
+        <v>103535.784363191</v>
       </c>
       <c r="F6" t="n">
-        <v>627818.6887063383</v>
+        <v>628695.8208400877</v>
       </c>
       <c r="G6" t="n">
-        <v>627818.6887063384</v>
+        <v>628695.820840088</v>
       </c>
       <c r="H6" t="n">
-        <v>627818.6887063382</v>
+        <v>628695.8208400877</v>
       </c>
       <c r="I6" t="n">
-        <v>627818.6887063384</v>
+        <v>628695.820840088</v>
       </c>
       <c r="J6" t="n">
-        <v>451395.4695137455</v>
+        <v>452272.601647495</v>
       </c>
       <c r="K6" t="n">
-        <v>627818.6887063379</v>
+        <v>628695.820840088</v>
       </c>
       <c r="L6" t="n">
-        <v>627818.6887063384</v>
+        <v>628695.820840088</v>
       </c>
       <c r="M6" t="n">
-        <v>493017.6734725009</v>
+        <v>493894.8056062506</v>
       </c>
       <c r="N6" t="n">
-        <v>627818.6887063382</v>
+        <v>628695.820840088</v>
       </c>
       <c r="O6" t="n">
-        <v>627818.6887063379</v>
+        <v>628695.820840088</v>
       </c>
       <c r="P6" t="n">
-        <v>627818.6887063384</v>
+        <v>628695.8208400878</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,22 +26795,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990183</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.287272754555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.028161794974761e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990183</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>118.8840272482699</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.03118778159268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>38.46332039683776</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.5126459144401</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>99.34800720210205</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>93.71914772648755</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>142.7608286835423</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>12.42908554841864</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.19472341080829</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>14.65885272800609</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>165.982817813169</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,31 +31515,31 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954665</v>
@@ -31548,16 +31548,16 @@
         <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649101</v>
@@ -31612,31 +31612,31 @@
         <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246923</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898688</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>214.4070918624604</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.392610473064</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
         <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35506,7 +35506,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>598.833559628141</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R23" t="n">
         <v>59.82538970349813</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415054</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36682,7 +36682,7 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>588.0961736712721</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768301</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>610.8663700188187</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768301</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768301</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
